--- a/PROGRAMMAZIONE/data/raw/pubblicazioni2019.xlsx
+++ b/PROGRAMMAZIONE/data/raw/pubblicazioni2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99213750-B993-412A-9269-81BB434BFB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC83D311-8048-4B7F-817C-8A2DD8883702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="17280" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PROGRAMMAZIONE/data/raw/pubblicazioni2019.xlsx
+++ b/PROGRAMMAZIONE/data/raw/pubblicazioni2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1817182-4641-4656-9FA2-0669A13381A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD7C0D9-8640-4F31-9000-520D56383A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3879,9 +3879,6 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>cdrn</t>
   </si>
   <si>
@@ -3919,6 +3916,9 @@
   </si>
   <si>
     <t>Cotti Piccinelli, Ester</t>
+  </si>
+  <si>
+    <t>impf</t>
   </si>
 </sst>
 </file>
@@ -4341,7 +4341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4882,31 +4884,31 @@
         <v>1238</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>1240</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>1241</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>1242</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>1243</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>1244</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>1246</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>1247</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1232</v>
@@ -5272,7 +5274,7 @@
     </row>
     <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B10" s="3">
         <v>8089</v>
@@ -5674,7 +5676,7 @@
     </row>
     <row r="19" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B19" s="3">
         <v>8101</v>
@@ -9028,7 +9030,7 @@
     </row>
     <row r="93" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B93" s="3">
         <v>8178</v>
@@ -10568,7 +10570,7 @@
     </row>
     <row r="128" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B128" s="3">
         <v>8182</v>
@@ -10744,7 +10746,7 @@
     </row>
     <row r="132" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B132" s="3">
         <v>8183</v>
@@ -10962,7 +10964,7 @@
     </row>
     <row r="137" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B137" s="3">
         <v>8184</v>
@@ -11392,7 +11394,7 @@
     </row>
     <row r="147" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B147" s="3">
         <v>8185</v>
@@ -13056,7 +13058,7 @@
     </row>
     <row r="185" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B185" s="3">
         <v>8198</v>
@@ -13654,7 +13656,7 @@
     </row>
     <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B198" s="3">
         <v>8205</v>
@@ -14308,7 +14310,7 @@
     </row>
     <row r="213" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B213" s="3">
         <v>8209</v>
@@ -15434,7 +15436,7 @@
     </row>
     <row r="239" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B239" s="3">
         <v>8215</v>
@@ -16380,7 +16382,7 @@
     </row>
     <row r="261" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B261" s="3">
         <v>8223</v>
@@ -17642,7 +17644,7 @@
     </row>
     <row r="289" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B289" s="3">
         <v>8231</v>
@@ -19348,7 +19350,7 @@
     </row>
     <row r="328" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B328" s="3">
         <v>8244</v>
@@ -19988,7 +19990,7 @@
     </row>
     <row r="343" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B343" s="3">
         <v>8247</v>
@@ -20288,7 +20290,7 @@
     </row>
     <row r="350" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B350" s="3">
         <v>8248</v>
@@ -21478,7 +21480,7 @@
     </row>
     <row r="378" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B378" s="3">
         <v>8256</v>
@@ -22094,7 +22096,7 @@
     </row>
     <row r="392" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B392" s="3">
         <v>8257</v>
@@ -22682,7 +22684,7 @@
     </row>
     <row r="406" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B406" s="3">
         <v>8259</v>
@@ -23530,7 +23532,7 @@
     </row>
     <row r="426" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B426" s="3">
         <v>8265</v>
@@ -23794,7 +23796,7 @@
     </row>
     <row r="432" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B432" s="3">
         <v>8266</v>
@@ -25558,7 +25560,7 @@
     </row>
     <row r="474" spans="1:16" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B474" s="3">
         <v>8275</v>
@@ -29432,7 +29434,7 @@
     </row>
     <row r="567" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B567" s="3">
         <v>8303</v>
@@ -29634,7 +29636,7 @@
     </row>
     <row r="572" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B572" s="3">
         <v>8304</v>
@@ -30920,7 +30922,7 @@
     </row>
     <row r="603" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B603" s="3">
         <v>8311</v>
@@ -31634,7 +31636,7 @@
     </row>
     <row r="620" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B620" s="3">
         <v>8317</v>
@@ -32840,7 +32842,7 @@
     </row>
     <row r="649" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B649" s="3">
         <v>8322</v>
@@ -34160,7 +34162,7 @@
     </row>
     <row r="679" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B679" s="3">
         <v>8325</v>
@@ -37316,7 +37318,7 @@
     </row>
     <row r="750" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B750" s="3">
         <v>8337</v>
@@ -38530,7 +38532,7 @@
     </row>
     <row r="779" spans="1:16" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B779" s="3">
         <v>8342</v>
@@ -39450,7 +39452,7 @@
     </row>
     <row r="801" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B801" s="3">
         <v>8345</v>
@@ -40216,7 +40218,7 @@
     </row>
     <row r="818" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B818" s="3">
         <v>8347</v>
@@ -41532,7 +41534,7 @@
     </row>
     <row r="849" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B849" s="3">
         <v>8371</v>
@@ -41968,7 +41970,7 @@
     </row>
     <row r="859" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B859" s="3">
         <v>8380</v>
@@ -43030,7 +43032,7 @@
     </row>
     <row r="884" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B884" s="3">
         <v>8398</v>
@@ -43710,7 +43712,7 @@
     </row>
     <row r="901" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B901" s="3">
         <v>8401</v>
@@ -43910,7 +43912,7 @@
     </row>
     <row r="906" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B906" s="3">
         <v>8402</v>
@@ -45854,7 +45856,7 @@
     </row>
     <row r="952" spans="1:16" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A952" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B952" s="3">
         <v>8433</v>
@@ -47086,7 +47088,7 @@
     </row>
     <row r="982" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A982" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B982" s="3">
         <v>8444</v>
@@ -47738,7 +47740,7 @@
     </row>
     <row r="998" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A998" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B998" s="3">
         <v>8486</v>
@@ -47864,7 +47866,7 @@
     </row>
     <row r="1001" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A1001" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1001" s="3">
         <v>8489</v>
